--- a/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-territorial-division.xlsx
+++ b/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:49:17+00:00</t>
+    <t>2025-10-02T16:58:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-territorial-division.xlsx
+++ b/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T16:58:05+00:00</t>
+    <t>2025-10-14T14:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-territorial-division.xlsx
+++ b/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T14:21:03+00:00</t>
+    <t>2025-10-14T14:30:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-territorial-division.xlsx
+++ b/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T14:30:30+00:00</t>
+    <t>2025-10-14T14:38:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-territorial-division.xlsx
+++ b/sg/ajouter-le-champ-commentaire/ig/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T14:38:25+00:00</t>
+    <t>2025-10-15T15:37:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
